--- a/Camp_2.xlsx
+++ b/Camp_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus22-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05445DB9-DDEA-4E0C-85F0-CAAD0EDABC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA02D750-7CC8-43AF-8A13-5B55B088D65A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>checkk</t>
   </si>
 </sst>
 </file>
@@ -541,7 +547,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +762,10 @@
         <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
